--- a/REGULAR/CCT/VELUZ, DORMILUNA.xlsx
+++ b/REGULAR/CCT/VELUZ, DORMILUNA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="337">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1041,6 +1041,9 @@
   </si>
   <si>
     <t>10/4-6/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
   </si>
 </sst>
 </file>
@@ -1747,8 +1750,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K454" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K454"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K455" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K455"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2077,12 +2080,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K454"/>
+  <dimension ref="A2:K455"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3645" topLeftCell="A404"/>
+      <pane ySplit="3645" topLeftCell="A404" activePane="bottomLeft"/>
       <selection activeCell="W9" sqref="W9:W14"/>
-      <selection pane="bottomLeft" activeCell="J414" sqref="J414"/>
+      <selection pane="bottomLeft" activeCell="H416" sqref="H416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2243,7 +2246,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>-6.9089999999999918</v>
+        <v>-3.1589999999999918</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2253,7 +2256,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>65.25</v>
+        <v>67</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -11294,7 +11297,7 @@
     </row>
     <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="40">
-        <f t="shared" ref="A403:A421" si="3">EDATE(A402,1)</f>
+        <f t="shared" ref="A403:A422" si="3">EDATE(A402,1)</f>
         <v>45017</v>
       </c>
       <c r="B403" s="20" t="s">
@@ -11521,15 +11524,17 @@
       <c r="B412" s="20" t="s">
         <v>258</v>
       </c>
-      <c r="C412" s="13"/>
+      <c r="C412" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D412" s="39">
         <v>3</v>
       </c>
       <c r="E412" s="9"/>
       <c r="F412" s="20"/>
-      <c r="G412" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G412" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H412" s="39"/>
       <c r="I412" s="9"/>
@@ -11565,19 +11570,27 @@
         <f>EDATE(A412,1)</f>
         <v>45200</v>
       </c>
-      <c r="B414" s="20"/>
-      <c r="C414" s="13"/>
+      <c r="B414" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C414" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D414" s="39"/>
       <c r="E414" s="9"/>
       <c r="F414" s="20"/>
-      <c r="G414" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H414" s="39"/>
+      <c r="G414" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H414" s="39">
+        <v>1</v>
+      </c>
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
-      <c r="K414" s="20"/>
+      <c r="K414" s="49">
+        <v>45201</v>
+      </c>
     </row>
     <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="40">
@@ -11585,13 +11598,15 @@
         <v>45231</v>
       </c>
       <c r="B415" s="20"/>
-      <c r="C415" s="13"/>
+      <c r="C415" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D415" s="39"/>
       <c r="E415" s="9"/>
       <c r="F415" s="20"/>
-      <c r="G415" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G415" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H415" s="39"/>
       <c r="I415" s="9"/>
@@ -11603,7 +11618,9 @@
         <f t="shared" si="3"/>
         <v>45261</v>
       </c>
-      <c r="B416" s="20"/>
+      <c r="B416" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="C416" s="13"/>
       <c r="D416" s="39"/>
       <c r="E416" s="9"/>
@@ -11612,15 +11629,16 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H416" s="39"/>
+      <c r="H416" s="39">
+        <v>1</v>
+      </c>
       <c r="I416" s="9"/>
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
     <row r="417" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A417" s="40">
-        <f t="shared" si="3"/>
-        <v>45292</v>
+      <c r="A417" s="48" t="s">
+        <v>336</v>
       </c>
       <c r="B417" s="20"/>
       <c r="C417" s="13"/>
@@ -11638,8 +11656,8 @@
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="40">
-        <f t="shared" si="3"/>
-        <v>45323</v>
+        <f>EDATE(A416,1)</f>
+        <v>45292</v>
       </c>
       <c r="B418" s="20"/>
       <c r="C418" s="13"/>
@@ -11658,7 +11676,7 @@
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="40">
         <f t="shared" si="3"/>
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B419" s="20"/>
       <c r="C419" s="13"/>
@@ -11677,7 +11695,7 @@
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="40">
         <f t="shared" si="3"/>
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B420" s="20"/>
       <c r="C420" s="13"/>
@@ -11696,7 +11714,7 @@
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="40">
         <f t="shared" si="3"/>
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
@@ -11713,7 +11731,10 @@
       <c r="K421" s="20"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="40"/>
+      <c r="A422" s="40">
+        <f t="shared" si="3"/>
+        <v>45413</v>
+      </c>
       <c r="B422" s="20"/>
       <c r="C422" s="13"/>
       <c r="D422" s="39"/>
@@ -12225,20 +12246,36 @@
       <c r="K453" s="20"/>
     </row>
     <row r="454" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A454" s="41"/>
-      <c r="B454" s="15"/>
-      <c r="C454" s="42"/>
-      <c r="D454" s="43"/>
+      <c r="A454" s="40"/>
+      <c r="B454" s="20"/>
+      <c r="C454" s="13"/>
+      <c r="D454" s="39"/>
       <c r="E454" s="9"/>
-      <c r="F454" s="15"/>
-      <c r="G454" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H454" s="43"/>
+      <c r="F454" s="20"/>
+      <c r="G454" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H454" s="39"/>
       <c r="I454" s="9"/>
-      <c r="J454" s="12"/>
-      <c r="K454" s="15"/>
+      <c r="J454" s="11"/>
+      <c r="K454" s="20"/>
+    </row>
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A455" s="41"/>
+      <c r="B455" s="15"/>
+      <c r="C455" s="42"/>
+      <c r="D455" s="43"/>
+      <c r="E455" s="9"/>
+      <c r="F455" s="15"/>
+      <c r="G455" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H455" s="43"/>
+      <c r="I455" s="9"/>
+      <c r="J455" s="12"/>
+      <c r="K455" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -12406,7 +12443,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>58.341000000000008</v>
+        <v>63.841000000000008</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
